--- a/t2/stats.xlsx
+++ b/t2/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danila_abdullin\CLionProjects\pr1\t2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3480165-8D07-426D-856C-BC294FAB2168}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5DBC4C-6F7C-4BFB-974D-3F5474554795}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -122,7 +122,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,6 +406,27 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$D$4:$D$7</c:f>
@@ -1560,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>

--- a/t2/stats.xlsx
+++ b/t2/stats.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danila_abdullin\CLionProjects\pr1\t2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuvi\CLionProjects\pr1\t2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5DBC4C-6F7C-4BFB-974D-3F5474554795}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1377CEB4-D474-4B74-89E4-D3EC01036612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,7 +48,7 @@
     <t>Время</t>
   </si>
   <si>
-    <t>Ускорение</t>
+    <t>Эффективность</t>
   </si>
 </sst>
 </file>
@@ -114,7 +125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -129,9 +140,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -362,7 +376,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1579,18 +1593,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.81640625" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="28.6328125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1683,8 +1697,18 @@
         <v>3.6408551922385919</v>
       </c>
     </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A34:A36"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A1:A3"/>
